--- a/results.xlsx
+++ b/results.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357F5DAF-E4F8-144B-BBCB-0A25FFC5D260}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="18800" yWindow="0" windowWidth="10000" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>1.m2f1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,23 +120,26 @@
   <si>
     <t>Naturalness MOS(1-5; 1-completely unnatural; 2completely natural)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -314,54 +318,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -638,301 +642,421 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="66.599999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" ht="66.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="18"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="5">
+        <v>2</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="9">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10">
+        <v>3</v>
+      </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10">
+        <v>3</v>
+      </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7"/>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10">
+        <v>3</v>
+      </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="7"/>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10">
+        <v>4</v>
+      </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10">
+        <v>3</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10">
+        <v>4</v>
+      </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="10">
+        <v>5</v>
+      </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="9">
+        <v>4</v>
+      </c>
+      <c r="C10" s="10">
+        <v>4</v>
+      </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="5">
+        <v>2</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="9">
+        <v>5</v>
+      </c>
+      <c r="C11" s="10">
+        <v>5</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="5">
+        <v>2</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="9">
+        <v>4</v>
+      </c>
+      <c r="C12" s="10">
+        <v>5</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="5">
+        <v>2</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="9">
+        <v>4</v>
+      </c>
+      <c r="C13" s="10">
+        <v>5</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
+      <c r="B14" s="9">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10">
+        <v>4</v>
+      </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
+      <c r="B15" s="9">
+        <v>4</v>
+      </c>
+      <c r="C15" s="10">
+        <v>5</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="5">
+        <v>2</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
+      <c r="B16" s="9">
+        <v>4</v>
+      </c>
+      <c r="C16" s="10">
+        <v>5</v>
+      </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="9">
+        <v>4</v>
+      </c>
+      <c r="C17" s="10">
+        <v>4</v>
+      </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="9">
+        <v>3</v>
+      </c>
+      <c r="C18" s="10">
+        <v>4</v>
+      </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="5">
+        <v>2</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="9">
+        <v>4</v>
+      </c>
+      <c r="C19" s="10">
+        <v>5</v>
+      </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="5">
+        <v>2</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
+      <c r="B20" s="9">
+        <v>4</v>
+      </c>
+      <c r="C20" s="10">
+        <v>5</v>
+      </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="9">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10">
+        <v>3</v>
+      </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:7" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+      <c r="B22" s="12">
+        <v>4</v>
+      </c>
+      <c r="C22" s="13">
+        <v>3</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="G22" s="1"/>
     </row>
